--- a/Test.xlsx
+++ b/Test.xlsx
@@ -12,21 +12,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
-  <si>
-    <t>nazwa pod</t>
-  </si>
-  <si>
-    <t>jeden</t>
-  </si>
-  <si>
-    <t>dwa</t>
-  </si>
-  <si>
-    <t>trzy</t>
-  </si>
-  <si>
-    <t>cztery</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>test2</t>
+  </si>
+  <si>
+    <t>test3</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
   </si>
 </sst>
 </file>
@@ -71,47 +95,131 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A2:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="n">
-        <v>1.0</v>
+      <c r="C2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>3.0</v>
+        <v>50.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>100.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>4.0</v>
+        <v>100.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="n">
+        <v>150.0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>300.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>400.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="n">
+        <v>250.0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>500.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="n">
+        <v>300.0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>600.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="n">
+        <v>350.0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>700.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="n">
+        <v>400.0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>800.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="n">
+        <v>450.0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>900.0</v>
       </c>
     </row>
   </sheetData>

--- a/Test.xlsx
+++ b/Test.xlsx
@@ -14,13 +14,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>test2</t>
-  </si>
-  <si>
-    <t>test3</t>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Amount</t>
   </si>
   <si>
     <t>0</t>
@@ -95,130 +95,130 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:C12"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0</v>
+        <v>50.0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>50.0</v>
+        <v>100.0</v>
       </c>
       <c r="C4" t="n">
-        <v>100.0</v>
+        <v>200.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" t="n">
-        <v>100.0</v>
+        <v>150.0</v>
       </c>
       <c r="C5" t="n">
-        <v>200.0</v>
+        <v>300.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6" t="n">
-        <v>150.0</v>
+        <v>200.0</v>
       </c>
       <c r="C6" t="n">
-        <v>300.0</v>
+        <v>400.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7" t="n">
-        <v>200.0</v>
+        <v>250.0</v>
       </c>
       <c r="C7" t="n">
-        <v>400.0</v>
+        <v>500.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8" t="n">
-        <v>250.0</v>
+        <v>300.0</v>
       </c>
       <c r="C8" t="n">
-        <v>500.0</v>
+        <v>600.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9" t="n">
-        <v>300.0</v>
+        <v>350.0</v>
       </c>
       <c r="C9" t="n">
-        <v>600.0</v>
+        <v>700.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10" t="n">
-        <v>350.0</v>
+        <v>400.0</v>
       </c>
       <c r="C10" t="n">
-        <v>700.0</v>
+        <v>800.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B11" t="n">
-        <v>400.0</v>
+        <v>450.0</v>
       </c>
       <c r="C11" t="n">
-        <v>800.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="n">
-        <v>450.0</v>
-      </c>
-      <c r="C12" t="n">
         <v>900.0</v>
       </c>
     </row>

--- a/Test.xlsx
+++ b/Test.xlsx
@@ -12,15 +12,111 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>Amount</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
+  <si>
+    <t>testString</t>
+  </si>
+  <si>
+    <t>pierwsze</t>
+  </si>
+  <si>
+    <t>List1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>213</t>
+  </si>
+  <si>
+    <t>426</t>
+  </si>
+  <si>
+    <t>639</t>
+  </si>
+  <si>
+    <t>852</t>
+  </si>
+  <si>
+    <t>1065</t>
+  </si>
+  <si>
+    <t>1278</t>
+  </si>
+  <si>
+    <t>1491</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1917</t>
+  </si>
+  <si>
+    <t>List2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>List3</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>3.0</t>
+  </si>
+  <si>
+    <t>4.0</t>
+  </si>
+  <si>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>6.0</t>
+  </si>
+  <si>
+    <t>7.0</t>
+  </si>
+  <si>
+    <t>8.0</t>
+  </si>
+  <si>
+    <t>9.0</t>
+  </si>
+  <si>
+    <t>testInt</t>
   </si>
 </sst>
 </file>
@@ -65,7 +161,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -75,67 +171,165 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="2">
-      <c r="B2" t="s">
+      <c r="A2" t="s">
         <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="3">
       <c r="C3" t="s">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>0.0</v>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>213.0</v>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>426.0</v>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>639.0</v>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>852.0</v>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>1065.0</v>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>1278.0</v>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>1491.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>1704.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>1917.0</v>
-      </c>
-    </row>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12"/>
+    <row r="13"/>
+    <row r="14"/>
+    <row r="15"/>
+    <row r="16"/>
+    <row r="17"/>
+    <row r="18"/>
+    <row r="19"/>
+    <row r="20"/>
+    <row r="21"/>
+    <row r="22"/>
+    <row r="23"/>
+    <row r="24"/>
+    <row r="25"/>
+    <row r="26"/>
+    <row r="27"/>
+    <row r="28"/>
+    <row r="29"/>
+    <row r="30"/>
+    <row r="31"/>
+    <row r="32"/>
+    <row r="33"/>
+    <row r="34"/>
+    <row r="35"/>
+    <row r="36"/>
+    <row r="37"/>
+    <row r="38"/>
+    <row r="39"/>
+    <row r="40"/>
+    <row r="41"/>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
